--- a/data/trans_bre/P38C-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Dificultad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>7.836774199299201</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>16.85761912545396</v>
+        <v>16.85761912545393</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.09886229421731853</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.2486108329044494</v>
+        <v>0.2486108329044488</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.582798998613257</v>
+        <v>4.855008048416386</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.39838697490436</v>
+        <v>11.05859760140388</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.05656639019894686</v>
+        <v>0.05932013968899222</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1442153037002724</v>
+        <v>0.1554835517473108</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.86610475598705</v>
+        <v>10.91153132249447</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.58783261168179</v>
+        <v>22.81299751924358</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1408520338473614</v>
+        <v>0.1415938831677627</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.358204325135043</v>
+        <v>0.3627058877326145</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>7.261597435076639</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.038390559603748</v>
+        <v>8.038390559603725</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.09033828447113387</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1035181717459995</v>
+        <v>0.1035181717459992</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.006371120175651</v>
+        <v>3.84823517595023</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.077337159326169</v>
+        <v>4.107706185132682</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0493506478433782</v>
+        <v>0.04681610370939068</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05060961797071652</v>
+        <v>0.05143060582223551</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.73362965800762</v>
+        <v>10.47895845190383</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.36344351648941</v>
+        <v>12.34013528726508</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1369110573964295</v>
+        <v>0.1334920131735574</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1646215099109305</v>
+        <v>0.1669461689259191</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>4.484585503607708</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.56081240586179</v>
+        <v>2.560812405861801</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.05213456911272581</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.03033169162820591</v>
+        <v>0.03033169162820604</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.291951916448287</v>
+        <v>1.226308464571457</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.196428096971936</v>
+        <v>-0.9983145331391559</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.01514545811099106</v>
+        <v>0.01393415829930238</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.01388859416916116</v>
+        <v>-0.01128680371918656</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.770392588611876</v>
+        <v>7.815979085050063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.642293289505996</v>
+        <v>5.883271636867963</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.09284171754576431</v>
+        <v>0.09289157377979336</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.06848334456716899</v>
+        <v>0.07190995647520057</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>2.353104760551306</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.010079440548211</v>
+        <v>6.010079440548221</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.02910901833503158</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.07302291557994182</v>
+        <v>0.07302291557994195</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.531184423821193</v>
+        <v>-2.456185725943417</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.705272821172634</v>
+        <v>2.401843972810122</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0303950749604389</v>
+        <v>-0.02951604077104977</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02012996072500491</v>
+        <v>0.02786651454202833</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.439064020758744</v>
+        <v>7.400753199315778</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.513337660769073</v>
+        <v>9.840762715602336</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09481034860494979</v>
+        <v>0.09502450820036261</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1191772909165385</v>
+        <v>0.1233398898231417</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>6.002940430529991</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.947756145780626</v>
+        <v>6.947756145780614</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.07369373887033151</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.087304961174998</v>
+        <v>0.08730496117499785</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.348357250860416</v>
+        <v>4.207528173773696</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.898238963315285</v>
+        <v>4.677911058194205</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.05293810960350578</v>
+        <v>0.05112265938110228</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.06032741614152638</v>
+        <v>0.05776654677276839</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.762467334314249</v>
+        <v>7.837913246953135</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.960854258850599</v>
+        <v>8.837001853339958</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.09659261270388494</v>
+        <v>0.09774821902703915</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1142333932107444</v>
+        <v>0.1129059143370302</v>
       </c>
     </row>
     <row r="19">
